--- a/FishLandings/household groups/statistics/Value (KES)_output.xlsx
+++ b/FishLandings/household groups/statistics/Value (KES)_output.xlsx
@@ -416,13 +416,13 @@
         </is>
       </c>
       <c r="B2">
-        <v>18491262.629693</v>
+        <v>25546918.139943</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>51.753834</v>
+        <v>83.277067</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -440,16 +440,16 @@
         </is>
       </c>
       <c r="B3">
-        <v>6332519.424742</v>
+        <v>10969565.972904</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>8.861810999999999</v>
+        <v>17.879129</v>
       </c>
       <c r="E3">
-        <v>0.000198</v>
+        <v>0</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -464,10 +464,10 @@
         </is>
       </c>
       <c r="B4">
-        <v>79676253.10051399</v>
+        <v>101847689.13126</v>
       </c>
       <c r="C4">
-        <v>223</v>
+        <v>332</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -487,16 +487,16 @@
         </is>
       </c>
       <c r="G5">
-        <v>-278.539468</v>
+        <v>-297.082961</v>
       </c>
       <c r="H5">
-        <v>-539.593939</v>
+        <v>-497.895394</v>
       </c>
       <c r="I5">
-        <v>-17.484997</v>
+        <v>-96.270528</v>
       </c>
       <c r="J5">
-        <v>0.033382</v>
+        <v>0.001626</v>
       </c>
     </row>
     <row r="6">
@@ -511,16 +511,16 @@
         </is>
       </c>
       <c r="G6">
-        <v>80.581307</v>
+        <v>89.40244300000001</v>
       </c>
       <c r="H6">
-        <v>-200.519084</v>
+        <v>-121.518695</v>
       </c>
       <c r="I6">
-        <v>361.681698</v>
+        <v>300.32358</v>
       </c>
       <c r="J6">
-        <v>0.777482</v>
+        <v>0.578702</v>
       </c>
     </row>
     <row r="7">
@@ -535,16 +535,16 @@
         </is>
       </c>
       <c r="G7">
-        <v>359.120775</v>
+        <v>386.485404</v>
       </c>
       <c r="H7">
-        <v>146.605956</v>
+        <v>227.886796</v>
       </c>
       <c r="I7">
-        <v>571.635594</v>
+        <v>545.084012</v>
       </c>
       <c r="J7">
-        <v>0.000266</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/FishLandings/household groups/statistics/Value (KES)_output.xlsx
+++ b/FishLandings/household groups/statistics/Value (KES)_output.xlsx
@@ -416,13 +416,13 @@
         </is>
       </c>
       <c r="B2">
-        <v>25546918.139943</v>
+        <v>18491262.629693</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>83.277067</v>
+        <v>51.753834</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -440,16 +440,16 @@
         </is>
       </c>
       <c r="B3">
-        <v>10969565.972904</v>
+        <v>6332519.424742</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>17.879129</v>
+        <v>8.861810999999999</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.000198</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -464,10 +464,10 @@
         </is>
       </c>
       <c r="B4">
-        <v>101847689.13126</v>
+        <v>79676253.10051399</v>
       </c>
       <c r="C4">
-        <v>332</v>
+        <v>223</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -487,16 +487,16 @@
         </is>
       </c>
       <c r="G5">
-        <v>-297.082961</v>
+        <v>-278.539468</v>
       </c>
       <c r="H5">
-        <v>-497.895394</v>
+        <v>-539.593939</v>
       </c>
       <c r="I5">
-        <v>-96.270528</v>
+        <v>-17.484997</v>
       </c>
       <c r="J5">
-        <v>0.001626</v>
+        <v>0.033382</v>
       </c>
     </row>
     <row r="6">
@@ -511,16 +511,16 @@
         </is>
       </c>
       <c r="G6">
-        <v>89.40244300000001</v>
+        <v>80.581307</v>
       </c>
       <c r="H6">
-        <v>-121.518695</v>
+        <v>-200.519084</v>
       </c>
       <c r="I6">
-        <v>300.32358</v>
+        <v>361.681698</v>
       </c>
       <c r="J6">
-        <v>0.578702</v>
+        <v>0.777482</v>
       </c>
     </row>
     <row r="7">
@@ -535,16 +535,16 @@
         </is>
       </c>
       <c r="G7">
-        <v>386.485404</v>
+        <v>359.120775</v>
       </c>
       <c r="H7">
-        <v>227.886796</v>
+        <v>146.605956</v>
       </c>
       <c r="I7">
-        <v>545.084012</v>
+        <v>571.635594</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.000266</v>
       </c>
     </row>
   </sheetData>
